--- a/data/income_statement/2digits/total/16_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/16_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>16-Manufacture of wood and of products of wood and cork, except furniture; manufacture of articles of straw and plaiting materials</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>16-Manufacture of wood and of products of wood and cork, except furniture; manufacture of articles of straw and plaiting materials</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,98 +841,113 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>6026258.09448</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>7302731.715410001</v>
+        <v>7302731.71541</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>9313585.586610001</v>
+        <v>9313767.06882</v>
       </c>
       <c r="F5" s="47" t="n">
         <v>10672354.82246</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>11876127.34478</v>
+        <v>11878438.62888</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>12032992.32927</v>
+        <v>14165641.31124</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>10577288.80219</v>
+        <v>16067169.12808</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>16575695.11973</v>
+        <v>16584802.84076</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>20139050.08798</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>25518327.92694</v>
+        <v>25552477.81092</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>28531052.22617</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>28744950.3059</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>37226044.104</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>5358582.87071</v>
+        <v>5358582.870709999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>6577483.412769999</v>
+        <v>6577483.41277</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>8348256.686410001</v>
+        <v>8348438.16862</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>9596043.292889999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>10568405.24284</v>
+        <v>10570713.47854</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>10726516.69878</v>
+        <v>12565890.60313</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>9257393.91873</v>
+        <v>14220040.88032</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>14446122.76729</v>
+        <v>14454910.08115</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>17258945.8037</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>21329352.46709</v>
+        <v>21360792.23647</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>23604736.7385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>23796607.08203</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>30442038.916</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>611089.7049100001</v>
+        <v>611089.70491</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>659063.4144100001</v>
+        <v>659063.41441</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>888794.0072800001</v>
@@ -1043,34 +959,39 @@
         <v>1226251.28325</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1227284.47575</v>
+        <v>1504612.98746</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1213539.09667</v>
+        <v>1705279.78953</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1991795.50492</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>2675062.89852</v>
+        <v>2675062.898519999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>3952695.31814</v>
+        <v>3955249.80762</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>4577549.390160001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>4601522.53542</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>6440320.924</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>56585.51886</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>66184.88823</v>
+        <v>66184.88823000001</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>76534.89292</v>
@@ -1079,31 +1000,36 @@
         <v>65711.59892999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>81470.81869</v>
+        <v>81473.86709</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>79191.15473999998</v>
+        <v>95137.72065</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>106355.78679</v>
+        <v>141848.45823</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>137776.84752</v>
+        <v>138097.25469</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>205041.38576</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>236280.14171</v>
+        <v>236435.76683</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>348766.09751</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>346820.68845</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>343684.264</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>162869.83843</v>
@@ -1121,28 +1047,33 @@
         <v>386910.57236</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>307014.98396</v>
+        <v>487410.2139799999</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>173250.4171</v>
+        <v>516133.3457899999</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>521822.21121</v>
+        <v>521863.34952</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>653877.31989</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>770059.1667800001</v>
+        <v>770076.9247800001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>1309831.01683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1311007.1836</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1777225.162</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>26875.31766</v>
@@ -1160,28 +1091,33 @@
         <v>33469.60119</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>36061.31888000001</v>
+        <v>38800.72502</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>46751.15567999999</v>
+        <v>55939.76093</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>73203.39140000001</v>
+        <v>73240.34811000001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>76121.94337000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>101981.77823</v>
+        <v>101999.09219</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>104011.94827</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>105573.51799</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>181633.548</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>106392.73967</v>
@@ -1196,31 +1132,36 @@
         <v>195754.68478</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>287734.4475299999</v>
+        <v>287734.44753</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>258051.31517</v>
+        <v>371808.8413499999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>99201.04179999999</v>
+        <v>366646.14589</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>348733.18123</v>
+        <v>348737.36283</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>438006.90854</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>480797.81681</v>
+        <v>480798.26085</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>976769.7029100001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>976770.05291</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1333877.457</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>29601.7811</v>
@@ -1232,19 +1173,19 @@
         <v>48374.19967</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>52212.45779</v>
+        <v>52212.45778999999</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>65706.52364000001</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>12902.34991</v>
+        <v>76800.64761</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>27298.21962</v>
+        <v>93547.43897</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>99885.63857999998</v>
+        <v>99885.63858000001</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>139748.46798</v>
@@ -1253,52 +1194,62 @@
         <v>187279.57174</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>229049.36565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>228663.6127</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>261714.157</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5863388.25605</v>
+        <v>5863388.256049999</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>7091124.975930001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>9044321.30655</v>
+        <v>9044502.788760001</v>
       </c>
       <c r="F13" s="47" t="n">
         <v>10393917.65745</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>11489216.77242</v>
+        <v>11491528.05652</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>11725977.34531</v>
+        <v>13678231.09726</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>10404038.38509</v>
+        <v>15551035.78229</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>16053872.90852</v>
+        <v>16062939.49124</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>19485172.76809</v>
+        <v>19485172.76808999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>24748268.76016</v>
+        <v>24782400.88614</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>27221221.20934</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>27433943.1223</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>35448818.942</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>4919387.48437</v>
@@ -1307,79 +1258,89 @@
         <v>5919463.80661</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>7620081.65433</v>
+        <v>7620246.51851</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>8573525.77847</v>
+        <v>8573525.778469998</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>9594369.870939998</v>
+        <v>9596355.75189</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>9772704.388969999</v>
+        <v>11330648.28188</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>8753403.126390001</v>
+        <v>12911445.85121</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>12960470.03367</v>
+        <v>12967469.92289</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>15898026.00356</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>19854746.84655</v>
+        <v>19885125.74203</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>22552247.19611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>22761276.04845</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>28352025.299</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>3872391.11934</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4786602.53851</v>
+        <v>4786602.538509999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>6073964.406810001</v>
+        <v>6073964.40681</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>6840672.800989999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>7694152.39186</v>
+        <v>7694691.45892</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>7769590.72858</v>
+        <v>9203638.181</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>7052108.863789999</v>
+        <v>10300827.49683</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>10950286.78429</v>
+        <v>10957127.125</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>13424905.67718</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>16876465.18639</v>
+        <v>16898229.00308</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>19285316.75606</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>19365352.04836</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>24119104.508</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>966042.2082799999</v>
+        <v>966042.2082800001</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>1009747.02415</v>
@@ -1391,52 +1352,57 @@
         <v>1585357.42171</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1700391.11928</v>
+        <v>1701831.13096</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1819988.82379</v>
+        <v>1927820.99401</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1471453.28826</v>
+        <v>2362749.59088</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1730746.91674</v>
+        <v>1730817.7787</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2155554.33451</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>2455723.77732</v>
+        <v>2463966.71778</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2712130.10143</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2827729.91711</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>3558195.994</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>62718.02546</v>
+        <v>62718.02545999999</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>97777.66129</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>146654.73396</v>
+        <v>146819.59814</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>104210.35443</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>146602.67707</v>
+        <v>146609.47928</v>
       </c>
       <c r="H17" s="48" t="n">
         <v>150933.84271</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>129353.83916</v>
+        <v>130741.42167</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>159086.04624</v>
@@ -1445,16 +1411,21 @@
         <v>212675.53059</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>375860.0992999999</v>
+        <v>376200.75468</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>307482.23701</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>320484.56115</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>396586.371</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>18236.13129</v>
@@ -1472,28 +1443,33 @@
         <v>53223.68273000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>32190.99389</v>
+        <v>48255.26416</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>100487.13518</v>
+        <v>117127.34183</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>120350.2864</v>
+        <v>120438.97295</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>104890.46128</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>146697.78354</v>
+        <v>146729.26649</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>247318.10161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>247709.52183</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>278138.426</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>944000.7716800001</v>
@@ -1502,76 +1478,86 @@
         <v>1171661.16932</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1424239.65222</v>
+        <v>1424256.27025</v>
       </c>
       <c r="F19" s="47" t="n">
         <v>1820391.87898</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1894846.90148</v>
+        <v>1895172.30463</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1953272.95634</v>
+        <v>2347582.81538</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1650635.2587</v>
+        <v>2639589.93108</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3093402.87485</v>
+        <v>3095469.56835</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3587146.76453</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4893521.913609999</v>
+        <v>4897275.14411</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>4668974.01323</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4672667.07385</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7096793.643</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>500634.4712199999</v>
+        <v>500634.47122</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>589859.18434</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>708581.91685</v>
+        <v>708590.9164700001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>800845.3851599999</v>
+        <v>800845.38697</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>958143.3019099999</v>
+        <v>958347.6122</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1027819.94355</v>
+        <v>1155097.76209</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>963188.9835699999</v>
+        <v>1249159.79531</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1473872.59242</v>
+        <v>1475683.38717</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1752632.32063</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2058623.84927</v>
+        <v>2063675.56814</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2407428.14173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2429392.46649</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2947916.644</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2439.95084</v>
@@ -1592,7 +1578,7 @@
         <v>4318.778139999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2550.88938</v>
+        <v>2550.889380000001</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>3556.14611</v>
@@ -1601,16 +1587,21 @@
         <v>3500.46096</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>4690.403050000001</v>
+        <v>4704.325400000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>7580.887000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>7580.887</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>12365.16</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>246593.94018</v>
@@ -1622,73 +1613,83 @@
         <v>356414.32627</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>397755.4787100001</v>
+        <v>397755.47871</v>
       </c>
       <c r="G22" s="48" t="n">
         <v>495220.68852</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>521505.4261</v>
+        <v>599824.4327800003</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>443373.5636999999</v>
+        <v>632320.6974100001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>782619.2082400001</v>
+        <v>782789.69907</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>956969.3789499999</v>
+        <v>956969.37895</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>1130497.72502</v>
+        <v>1130872.79283</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1265544.3757</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1270684.71533</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1664596.599</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>251600.5802</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>284237.80121</v>
+        <v>284237.8012100001</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>350473.72091</v>
+        <v>350482.72053</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>401706.97895</v>
+        <v>401706.98076</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>461317.32978</v>
+        <v>461521.64007</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>501995.73931</v>
+        <v>550954.5511700001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>517264.53049</v>
+        <v>614288.20852</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>687697.23807</v>
+        <v>689337.5419900001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>792162.48072</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>923435.7212</v>
+        <v>928098.44991</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1134302.87903</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1151126.86416</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1270954.885</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>443366.3004600001</v>
@@ -1697,37 +1698,42 @@
         <v>581801.9849800001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>715657.7353700001</v>
+        <v>715665.35378</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1019546.49382</v>
+        <v>1019546.49201</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>936703.5995700001</v>
+        <v>936824.6924300001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>925453.0127900001</v>
+        <v>1192485.05329</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>687446.27513</v>
+        <v>1390430.13577</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1619530.28243</v>
+        <v>1619786.18118</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1834514.4439</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2834898.06434</v>
+        <v>2833599.57597</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2261545.8715</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2243274.60736</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>4148876.999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>177852.5034</v>
@@ -1739,34 +1745,39 @@
         <v>305449.49741</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>340913.23557</v>
+        <v>340913.2355700001</v>
       </c>
       <c r="G25" s="47" t="n">
         <v>371315.88648</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>390263.56341</v>
+        <v>623948.4013299999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>607725.01226</v>
+        <v>1022596.71714</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>593457.16917</v>
+        <v>593937.9713100001</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>1059854.31056</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3571285.65458</v>
+        <v>3571755.47881</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2116130.46119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2121923.80186</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4220116.114</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>389.12848</v>
@@ -1784,10 +1795,10 @@
         <v>3402.12858</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>6004.80042</v>
+        <v>6169.436610000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>6028.97837</v>
+        <v>11881.4804</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>4442.20441</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>30557.36245</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>295208.833</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>815.78158</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>19926.38209</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>663.635</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>16281.78356</v>
@@ -1862,28 +1883,33 @@
         <v>21557.88449</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>21239.08544</v>
+        <v>25496.97552</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>20191.49218</v>
+        <v>33284.92313</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>40342.73891000001</v>
+        <v>40630.08498000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>72566.79292000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>100486.57791</v>
+        <v>100533.60177</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>81721.48521000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>84902.72784000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>161199.938</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>19.51398</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>3555.83706</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>167.002</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3351.47839</v>
@@ -1931,7 +1962,7 @@
         <v>2949.53722</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>3492.527520000001</v>
+        <v>3492.52752</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>10781.22311</v>
@@ -1943,28 +1974,33 @@
         <v>3475.97405</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>3267.01603</v>
+        <v>4024.01603</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>16919.48884</v>
+        <v>16994.58441</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>5327.63311</v>
+        <v>5327.633110000001</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>8385.79052</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>10300.40008</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>10307.57285</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>10615.58</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>338.7128299999999</v>
+        <v>338.71283</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>140.26307</v>
@@ -1985,7 +2021,7 @@
         <v>2131.44309</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>598.22838</v>
+        <v>670.42759</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>1180.06534</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>2220.30276</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>45739.344</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>131013.97418</v>
@@ -2015,31 +2056,36 @@
         <v>258204.60211</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>291924.8137699999</v>
+        <v>291924.81377</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>290757.17111</v>
+        <v>519068.9007</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>515460.70803</v>
+        <v>871368.8480700001</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>449967.1793</v>
+        <v>450010.57824</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>861069.4736400001</v>
+        <v>861069.47364</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3332979.34861</v>
+        <v>3333021.04791</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1819437.74312</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1821683.4788</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>3547273.608</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>2283.95649</v>
@@ -2060,10 +2106,10 @@
         <v>23446.30632</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>17475.37652</v>
+        <v>38715.13764000001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>19651.60923999999</v>
+        <v>19651.60924</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>16778.13645</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>39047.43384999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>30504.107</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>12.69046</v>
@@ -2113,20 +2164,25 @@
       <c r="M34" s="48" t="n">
         <v>204.54871</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>23345.48345</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>28331.75437999999</v>
+        <v>28331.75438</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>39512.12880000001</v>
+        <v>39512.1288</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>30756.3206</v>
@@ -2135,28 +2191,33 @@
         <v>32313.25278</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>41692.59867</v>
+        <v>42643.18073</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>40471.2231</v>
+        <v>58492.09384</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>56369.05923000001</v>
+        <v>56371.82158</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>100290.55611</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>106324.60455</v>
+        <v>106705.70562</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>109158.96586</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>109518.15545</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>128724.067</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>111293.3247</v>
@@ -2171,31 +2232,36 @@
         <v>149876.35689</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>487991.75385</v>
+        <v>488006.03239</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>330650.86872</v>
+        <v>396588.45212</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>711569.8050899999</v>
+        <v>981434.39923</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>779157.4835199999</v>
+        <v>779319.9123700002</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>939294.05625</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3027146.70069</v>
+        <v>3027176.95138</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1376721.5017</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1379789.23826</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2343094.554</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1258.78408</v>
@@ -2213,10 +2279,10 @@
         <v>1102.9255</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1104.94779</v>
+        <v>1109.01219</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>679.1014200000001</v>
+        <v>2722.45126</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>3176.09916</v>
@@ -2228,13 +2294,18 @@
         <v>1608.63529</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1412.8327</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1467.53594</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1775.985</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>18175.8765</v>
@@ -2246,19 +2317,19 @@
         <v>11758.69459</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>48031.5485</v>
+        <v>48031.54849999999</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>31639.1383</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>29739.32532</v>
+        <v>30645.4913</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>37401.59922</v>
+        <v>56921.28633</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>77342.18904000001</v>
+        <v>77343.17224</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>41605.86815000001</v>
@@ -2267,25 +2338,30 @@
         <v>101663.91386</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>65554.69125999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>65554.69126000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>44014.841</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>72.70720999999999</v>
+        <v>72.70721</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>145.15714</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>2090.22279</v>
+        <v>2090.222789999999</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>3032.18223</v>
+        <v>3032.182229999999</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>586.6893299999999</v>
@@ -2294,28 +2370,33 @@
         <v>133.75053</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>522.7299</v>
+        <v>523.01099</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>20.54057</v>
+        <v>158.84057</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>6494.73311</v>
+        <v>6494.733109999999</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>469.0323999999999</v>
+        <v>469.0324</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>279.64727</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>4208.403</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>81071.38008</v>
+        <v>81071.38008000002</v>
       </c>
       <c r="D40" s="48" t="n">
         <v>85512.87932000001</v>
@@ -2330,28 +2411,33 @@
         <v>414002.25661</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>264839.0989099999</v>
+        <v>321029.94723</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>642769.52034</v>
+        <v>887418.12147</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>665417.7655699999</v>
+        <v>665440.71139</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>857810.47829</v>
+        <v>857810.4782900001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2870406.6813</v>
+        <v>2870413.47879</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1258910.85021</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1261968.37538</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2231885.182</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>2330.05723</v>
@@ -2369,10 +2455,10 @@
         <v>29215.17983</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>27430.44871</v>
+        <v>35320.27722</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>18538.68787</v>
+        <v>18728.28793</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>18153.9572</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>26576.74251</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>36574.973</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>10.68318</v>
@@ -2425,17 +2516,22 @@
       <c r="M42" s="48" t="n">
         <v>103.63338</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>88.321</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>8373.83642</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>4045.611469999999</v>
+        <v>4045.61147</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>6335.88906</v>
@@ -2444,31 +2540,36 @@
         <v>9126.978009999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>10606.61426</v>
+        <v>10620.8928</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>7394.26062</v>
+        <v>8340.936810000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>11615.42804</v>
+        <v>15078.50295</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>15046.93198</v>
+        <v>15047.13181</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>16832.33094</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>13697.8445</v>
+        <v>13721.2977</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>23883.10437</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>23838.61252</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>24546.849</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>256210.10014</v>
@@ -2480,34 +2581,39 @@
         <v>534448.76208</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>370243.0395699999</v>
+        <v>370243.03957</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>715241.8280900001</v>
+        <v>715241.82809</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>334417.5446</v>
+        <v>663203.8779900001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>474530.13818</v>
+        <v>1097919.67916</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1054693.1712</v>
+        <v>1055340.6597</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1478474.98026</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2965379.31772</v>
+        <v>2965915.10533</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2296738.04056</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2298714.28874</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3424647.595</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>184203.45957</v>
@@ -2525,31 +2631,36 @@
         <v>285816.4835</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>258852.61892</v>
+        <v>325001.87796</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>355334.6859</v>
+        <v>455888.11354</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>518482.0485200001</v>
+        <v>519129.53702</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>676487.6144</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1193429.60077</v>
+        <v>1193965.38838</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1294908.08615</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1296870.96159</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1424008.83</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>72006.64057</v>
+        <v>72006.64056999999</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>62189.24696</v>
@@ -2564,28 +2675,33 @@
         <v>429425.3445900001</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>75564.92568000001</v>
+        <v>338202.00003</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>119195.45228</v>
+        <v>642031.5656199999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>536211.12268</v>
+        <v>536211.1226799999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>801987.3658599999</v>
+        <v>801987.36586</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>1771949.71695</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1001829.95441</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1001843.32715</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2000638.765</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>253715.37902</v>
@@ -2594,37 +2710,42 @@
         <v>488298.46893</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>291262.9769</v>
+        <v>291270.59531</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>840340.33293</v>
+        <v>840340.33112</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>104785.90411</v>
+        <v>104892.71843</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>650648.16288</v>
+        <v>756641.12451</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>109071.34412</v>
+        <v>333672.77452</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>379136.79688</v>
+        <v>379063.58042</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>476599.71795</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>413657.7005099999</v>
+        <v>412262.9980699999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>704216.7904300001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>686694.88222</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2601250.964</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>36031.54166</v>
@@ -2633,37 +2754,42 @@
         <v>49306.76469</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>56759.74654</v>
+        <v>56759.74654000001</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>65267.41644</v>
+        <v>65267.41644000001</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>76582.81917</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>113681.83139</v>
+        <v>121109.13111</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>92530.92952999999</v>
+        <v>103159.89848</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>110403.12293</v>
+        <v>110425.52201</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>124686.96404</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>208591.48206</v>
+        <v>209244.26102</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>220682.3073200001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>231601.22637</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>330726.833</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1051.21531</v>
@@ -2681,10 +2807,10 @@
         <v>633.7497499999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>510.21112</v>
+        <v>1309.13679</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>5896.74117</v>
+        <v>6009.65554</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>3891.48467</v>
@@ -2698,53 +2824,63 @@
       <c r="M49" s="48" t="n">
         <v>13625.9892</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>4003.185</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>34980.32635</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>49007.96132000001</v>
+        <v>49007.96132</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>56384.34638</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>65024.78731</v>
+        <v>65024.78730999999</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>75949.06942</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>113171.62027</v>
+        <v>119799.99432</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>86634.18836</v>
+        <v>97150.24294</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>106511.63826</v>
+        <v>106534.03734</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>122679.12551</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>203990.22057</v>
+        <v>204642.99953</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>207056.31812</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>217975.23717</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>326723.648</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>70927.61918000001</v>
+        <v>70927.61917999999</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>92226.77256</v>
@@ -2759,28 +2895,33 @@
         <v>159584.87856</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>168074.51961</v>
+        <v>206114.62725</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>81561.03593000001</v>
+        <v>127015.38252</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>203101.46819</v>
+        <v>203225.90927</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>156546.69767</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>265019.42098</v>
+        <v>265391.17817</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>318353.10958</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>320902.18467</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>434513.345</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>43819.12433</v>
@@ -2798,10 +2939,10 @@
         <v>81685.89753</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>62994.75697</v>
+        <v>91530.80216000001</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>35010.61252</v>
+        <v>66687.11225000001</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>72632.24515</v>
@@ -2813,13 +2954,18 @@
         <v>142866.44326</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>185089.87357</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>185251.17476</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>216983.636</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1910.24494</v>
@@ -2837,28 +2983,33 @@
         <v>1466.40129</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1909.89922</v>
+        <v>3811.2513</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>2021.29843</v>
+        <v>2370.03498</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>17588.82627</v>
+        <v>17589.74852</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>2019.72639</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>7061.83016</v>
+        <v>7104.151779999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3563.46813</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3564.07011</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>4012.746</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>25198.24990999999</v>
@@ -2867,7 +3018,7 @@
         <v>35496.34671</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>91628.95119999998</v>
+        <v>91628.9512</v>
       </c>
       <c r="F54" s="48" t="n">
         <v>44645.31819</v>
@@ -2876,67 +3027,77 @@
         <v>76432.57974000002</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>103169.86342</v>
+        <v>110772.57379</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>44529.12497999999</v>
+        <v>57958.23529</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>112880.39677</v>
+        <v>113003.9156</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>78579.90916</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>115091.14756</v>
+        <v>115420.58313</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>129699.76788</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>132086.9398</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>213516.963</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>218819.3015</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>445378.4610600001</v>
+        <v>445378.46106</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>207178.8916</v>
+        <v>207186.51001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>723749.0199900001</v>
+        <v>723749.01818</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>21783.84472</v>
+        <v>21890.65904000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>596255.4746600001</v>
+        <v>671635.6283699999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>120041.23772</v>
+        <v>309817.29048</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>286438.45162</v>
+        <v>286263.19316</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>444739.9843199999</v>
+        <v>444739.98432</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>357229.76159</v>
+        <v>356116.08092</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>606545.9881699999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>597393.9239200001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2497464.452</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>50144.2012</v>
@@ -2951,31 +3112,36 @@
         <v>117804.31435</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>65114.91164</v>
+        <v>65114.91164000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>113116.9154</v>
+        <v>113273.85012</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>52700.47445</v>
+        <v>101847.8124</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>98797.66114999999</v>
+        <v>98812.45027000002</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>109316.774</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>111877.71532</v>
+        <v>111972.8598</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>108888.43904</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>110108.21898</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>217954.311</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>168675.1003</v>
@@ -2984,34 +3150,37 @@
         <v>370686.32637</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>134160.99503</v>
+        <v>134168.61344</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>605944.7056400001</v>
+        <v>605944.7038299999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-43331.06692000003</v>
+        <v>-43224.25260000002</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>483138.55926</v>
+        <v>558361.77825</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>67340.76327</v>
+        <v>207969.47808</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>187640.79047</v>
+        <v>187450.74289</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>335423.21032</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>245352.04627</v>
+        <v>244143.22112</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>497657.54913</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>487285.70494</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2279510.141</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>2727</v>
@@ -3038,34 +3210,37 @@
         <v>2738</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2550</v>
+        <v>2554</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2485</v>
+        <v>2491</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2502</v>
+        <v>2520</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2542</v>
+        <v>2557</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2656</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2447</v>
+        <v>2685</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2804</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>